--- a/submission/GAAIF_Analysis_Data.xlsx
+++ b/submission/GAAIF_Analysis_Data.xlsx
@@ -10,13 +10,17 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contract Terms" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pricing Results" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monte Carlo Results" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Greeks" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gold Sensitivity" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EURUSD Sensitivity" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volatility Sensitivity" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volatility Grid" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Sensitivity" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scenario Analysis" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Convergence Analysis" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scenario Analysis" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample Paths" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Valuation History" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rate Sensitivity" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,6 +41,7 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -74,7 +79,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,204 +454,338 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GAAIF Challenge 2026 - Structured Gold Forward Analysis</t>
-        </is>
-      </c>
+          <t>GAAIF Challenge 2026 - Structured Gold Forward Pricing Analysis</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Analysis Date:</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+          <t>ANALYSIS OVERVIEW</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Analysis Date</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>February 1, 2026</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KEY RESULTS</t>
+          <t>Prepared By</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GAAIF Challenge Submission</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Z Group Present Value (EUR)</t>
+          <t>Model Type</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>46,330,626</t>
+          <t>Two-Factor Correlated GBM Monte Carlo</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A Bank Present Value (EUR)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-46,330,626</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Standard Error (EUR)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>414,104</t>
-        </is>
-      </c>
+          <t>KEY VALUATION RESULTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>95% CI Lower (EUR)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>45,518,983</t>
-        </is>
+          <t>Z Group Present Value (EUR)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>46330625.75902797</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>95% CI Upper (EUR)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>47,142,269</t>
-        </is>
+          <t>A Bank Present Value (EUR)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-46330625.75902797</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Standard Error (EUR)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>414103.5203600363</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KNOCKOUT ANALYSIS</t>
-        </is>
+          <t>95% Confidence Interval Lower</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>45518982.85912229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Knockout Rate</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>94.77%</t>
-        </is>
+          <t>95% Confidence Interval Upper</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>47142268.65893364</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Average Knockout Time (years)</t>
+          <t>Relative Standard Error</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.89%</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Lower Barrier Breaches</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>34.83%</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Upper Barrier Breaches</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>59.94%</t>
-        </is>
-      </c>
+          <t>BARRIER ANALYSIS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Overall Knockout Probability</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>94.77%</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SIMULATION PARAMETERS</t>
-        </is>
+          <t>Average Time to Knockout (Years)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6058342030337092</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Number of Paths</t>
+          <t>Lower Barrier (1.05) Breach Rate</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>100,000</t>
+          <t>34.83%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Number of Time Steps</t>
+          <t>Upper Barrier (1.25) Breach Rate</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>59.94%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Survival to Maturity Rate</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5.23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SETTLEMENT STATISTICS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mean Settlement Gold Price (USD/oz)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5035.778552612331</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Current Gold Spot (USD/oz)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Strike Price (USD/oz)</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Gold Above/Below Strike</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>+6.52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Current Intrinsic Value (EUR)</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>32608695.65217391</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SIMULATION PARAMETERS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Number of Monte Carlo Paths</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Number of Time Steps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Time Step Size (Days)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Variance Reduction</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Antithetic + Control Variate</t>
-        </is>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Antithetic Variates + Control Variate</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Random Seed</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,17 +807,244 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Number of Paths</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Z Group PV (EUR)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Standard Error (EUR)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Relative SE (%)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>95% CI Width (EUR)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B2" t="n">
+        <v>45992473.70905714</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4302937.573007654</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.355742855293062</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16867515.28619</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B3" t="n">
+        <v>46988924.20355729</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2622863.353449391</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.581875724770961</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10281624.34552161</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B4" t="n">
+        <v>47694323.36043374</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1905037.386532618</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.994264416198846</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7467746.555207863</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B5" t="n">
+        <v>46538145.33356484</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1309819.857112942</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.814508072302265</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5134493.839882731</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25000</v>
+      </c>
+      <c r="B6" t="n">
+        <v>46130336.26555861</v>
+      </c>
+      <c r="C6" t="n">
+        <v>826517.3325626061</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.791700211775158</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3239947.943645418</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="B7" t="n">
+        <v>47302874.10314973</v>
+      </c>
+      <c r="C7" t="n">
+        <v>601539.02730618</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.271675429265567</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2358032.987040222</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>75000</v>
+      </c>
+      <c r="B8" t="n">
+        <v>46993276.31370077</v>
+      </c>
+      <c r="C8" t="n">
+        <v>487896.2517225122</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.038225656933537</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1912553.30675225</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B9" t="n">
+        <v>47286941.50710552</v>
+      </c>
+      <c r="C9" t="n">
+        <v>416174.6988276076</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8801049202242686</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1631404.819404215</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>150000</v>
+      </c>
+      <c r="B10" t="n">
+        <v>46350412.73384335</v>
+      </c>
+      <c r="C10" t="n">
+        <v>339821.7221281189</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7331579204687291</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1332101.150742233</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>200000</v>
+      </c>
+      <c r="B11" t="n">
+        <v>46150536.54356054</v>
+      </c>
+      <c r="C11" t="n">
+        <v>295678.7295101174</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6406831895248549</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1159060.61967966</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="21" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="21" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>Scenario</t>
         </is>
       </c>
@@ -694,24 +1060,44 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Gold Vol (%)</t>
+          <t>Gold Vol</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>FX Vol</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Z Group PV (EUR)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Knockout Rate</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A Bank PV (EUR)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>KO Rate</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Avg KO Time</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Base Case (Current)</t>
+          <t>Base Case - Current Market</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -721,145 +1107,2767 @@
         <v>1.19</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="E2" t="n">
-        <v>46330625.75902797</v>
+        <v>0.1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.94769</v>
+        <v>-0.3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46411173.74027093</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-46411173.74027093</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6220916129293091</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gold Crash to $4,200</t>
+          <t>Gold at Strike ($4,600)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="C3" t="n">
         <v>1.19</v>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>0.28</v>
       </c>
       <c r="E3" t="n">
-        <v>-29530716</v>
+        <v>0.1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9379999999999999</v>
+        <v>-0.3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13486739.01621544</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-13486739.01621544</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6220916129293091</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gold Rally to $5,500</t>
+          <t>Gold Mild Decline ($4,400)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5500</v>
+        <v>4400</v>
       </c>
       <c r="C4" t="n">
         <v>1.19</v>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="E4" t="n">
-        <v>113247347</v>
+        <v>0.1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9379999999999999</v>
+        <v>-0.3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-8462884.133154871</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8462884.133154871</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6220916129293091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EUR/USD Weakens (1.10)</t>
+          <t>Gold Crash ($4,000)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4900</v>
+        <v>4000</v>
       </c>
       <c r="C5" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>0.35</v>
       </c>
       <c r="E5" t="n">
-        <v>44551976</v>
+        <v>0.1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.953</v>
+        <v>-0.3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-52456233.59543047</v>
+      </c>
+      <c r="H5" t="n">
+        <v>52456233.59543047</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6220916129293091</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EUR/USD Near Upper KO (1.22)</t>
+          <t>Gold Severe Crash ($3,500)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4900</v>
+        <v>3500</v>
       </c>
       <c r="C6" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>0.4</v>
       </c>
       <c r="E6" t="n">
-        <v>39971971</v>
+        <v>0.12</v>
       </c>
       <c r="F6" t="n">
-        <v>0.987</v>
+        <v>-0.3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-110751177.5308969</v>
+      </c>
+      <c r="H6" t="n">
+        <v>110751177.5308969</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.492520050267247</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Extreme Bear</t>
+          <t>Gold Rally ($5,200)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3800</v>
+        <v>5200</v>
       </c>
       <c r="C7" t="n">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>0.28</v>
       </c>
       <c r="E7" t="n">
-        <v>-81310405</v>
+        <v>0.1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.99</v>
+        <v>-0.3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>79335608.46432638</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-79335608.46432638</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6220916129293091</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Extreme Bull</t>
+          <t>Gold Strong Rally ($5,500)</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>5500</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>112310488.5713435</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-112310488.5713435</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6220916129293091</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gold New ATH ($5,800)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>5800</v>
       </c>
+      <c r="C9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>145147219.6541147</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-145147219.6541147</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6220916129293091</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EUR Weakens (1.12)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4900</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>46773147.67718022</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-46773147.67718022</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9432</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.646524159564872</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EUR Strong (1.08)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4900</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40957897.84981426</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-40957897.84981426</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9682333333333333</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3875243789348516</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EUR Near Upper KO (1.22)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4900</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>39314870.05856194</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-39314870.05856194</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9887333333333334</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.330978227714793</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EUR Very Near KO (1.24)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4900</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>35643844.66723714</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-35643844.66723714</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9985333333333334</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.145052691036801</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Low Vol Environment</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4900</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="G14" t="n">
+        <v>59706375.28976774</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-59706375.28976774</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6231</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.948570002012467</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>High Vol Environment</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4900</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="G15" t="n">
+        <v>40548027.14073745</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-40548027.14073745</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9947333333333334</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.3849791441273245</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Extreme Bear (Gold crash + EUR weak)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3800</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-81014260.48817208</v>
+      </c>
+      <c r="H16" t="n">
+        <v>81014260.48817208</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9903</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.3178615640495878</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Extreme Bull (Gold rally + EUR strong)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5800</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>136277284.1184215</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-136277284.1184215</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9919666666666667</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2580630536207</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Stress Test 1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3500</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-117593131.7252957</v>
+      </c>
+      <c r="H18" t="n">
+        <v>117593131.7252957</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9995333333333334</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1258113574694646</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Stress Test 2</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="G19" t="n">
+        <v>155352872.5768998</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-155352872.5768998</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9984666666666666</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1457168186987243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time (Years)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Gold Path 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gold Path 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Gold Path 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Gold Path 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gold Path 5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Gold Path 6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Gold Path 7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Gold Path 8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Gold Path 9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Gold Path 10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>EURUSD Path 1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>EURUSD Path 2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>EURUSD Path 3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>EURUSD Path 4</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>EURUSD Path 5</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>EURUSD Path 6</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>EURUSD Path 7</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>EURUSD Path 8</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>EURUSD Path 9</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>EURUSD Path 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4900</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4900</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4900</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4900</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4900</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4900</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4900</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4900</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4900</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4900</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5107.21327244107</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4743.687184353125</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4966.415151770124</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4745.234558834597</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4715.381453289576</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5129.739901492867</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5197.661282531583</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5143.952838806455</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5118.042480959984</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6125.475162108864</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.151899367446445</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.165221844556808</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.198107257241449</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.224390410341638</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.226086109551566</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.229413747121532</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.20046821997478</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.16470638943639</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.179185127646208</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.117457647287821</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5075.835248403409</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5777.413811842593</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5325.426324630866</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5156.933230304268</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4852.921079579532</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5483.195315980722</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4890.779121254613</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5413.579666122461</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5767.292410461436</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6306.848929717291</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.164695273591312</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.156262221189353</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.150543719809203</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.230150692433712</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.196516595229719</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.175582338385029</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.258319379230845</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.177175460147114</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.145265893739343</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.08231433841796</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5094.630707210388</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4921.009723653829</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6425.942941197139</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5948.95666368256</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4413.101651795673</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4725.231327458402</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5243.310434623974</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4706.023867498313</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4986.709098167868</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7003.444752297234</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.12151253570969</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.147612210874028</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.18082176667015</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.236263673519272</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.27369863009071</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.15254282678146</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.212628897317714</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.181681636290743</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.227930690879008</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.072102194048101</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5307.790843794917</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5069.230235844277</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5676.745010148104</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5474.369504416222</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4120.439802565638</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5140.89528620672</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5986.101302664728</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4835.160279951029</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4842.580887123686</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5350.944355057294</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.193496893406213</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.162780110714152</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.178042330626983</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.306862843365412</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.285118920593204</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.078811537560887</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.167212839877857</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.17854535706442</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.20354124542615</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.120584627896974</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5755.353166478028</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5102.739310609196</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6755.722561867736</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4866.026693735952</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3790.793717511254</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4544.391110869989</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6139.361402844597</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4199.771955538366</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5557.826727731057</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5608.900973483531</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.180081931399424</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.17911420099323</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.131119792997703</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.299597012675392</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.262444121339398</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.145956097808336</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.152903991238517</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.169793084820443</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.143973809709579</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.071261502361686</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6381.605219277197</v>
+      </c>
       <c r="C8" t="n">
-        <v>1.23</v>
+        <v>5598.605338834951</v>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>6635.74462838451</v>
       </c>
       <c r="E8" t="n">
-        <v>136746174</v>
+        <v>5106.260655947625</v>
       </c>
       <c r="F8" t="n">
-        <v>0.991</v>
+        <v>3958.782410305821</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3751.736565495343</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5323.174802093876</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4224.563755343708</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5676.199115510346</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5084.974644558783</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.218692370361781</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.134481051869287</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.098670678155148</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.316068008368196</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.247509365062227</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.143430526374786</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.162115402565026</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.123901813700751</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.079807445460959</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.026989549234824</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5687.667795825852</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5987.182372765475</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5544.284757635672</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4772.198819857895</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3801.892037665664</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3449.321256737814</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5772.87324531024</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4780.182728068233</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5298.792986617079</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5132.274181550619</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.219960966241636</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.09864009643258</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.141748383212799</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.32080935202357</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.217956976104881</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.225432983502944</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.192649496569736</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.079474309877351</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.062596349361754</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.01225867770444</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6530.19721366433</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6693.100926326046</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4903.119605816911</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4771.764894986997</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3574.080131576291</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3528.113353277752</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5908.438808568082</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5200.784334814448</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5185.232299277807</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4817.097478579834</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.209320278072686</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.059687559347881</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.100545742807978</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.349263921321418</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.184055084958341</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.279746240796352</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.19396445490278</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.050324325684542</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.055685540041659</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.039784295029001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6547.542375549273</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6662.684918143443</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5115.073361733041</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5362.247038313107</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3445.608118211108</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3826.094824889461</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6073.308734495293</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5630.179492915364</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5810.803030036262</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5358.239029598961</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.171149907020208</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.060572062657958</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.111497204182455</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.35576817004085</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.145770828134869</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.283721066886091</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.217559523293031</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.046348096000239</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.020591102962028</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.045094785875472</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6672.991710226115</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7497.124045220292</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5650.535427341253</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5306.826809770595</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3429.411367695573</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3816.161186602706</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5166.063160298718</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5782.720172313278</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6285.996190292218</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5618.071334335988</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.165644865192741</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.012699023774807</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.11961574772097</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.321121018393594</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.13148519038306</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.328397983539671</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.303580664930917</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.021952838543894</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.042050877284419</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.002241766788504</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6584.658006034141</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6962.814925245027</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5299.924580375382</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6481.328098356959</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3599.129781882759</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3566.65912713406</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5299.205973045197</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6037.108140821469</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6639.493815977964</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5364.996937286601</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.147720508319178</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.058307784130865</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.119843873555809</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.292142164197545</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.126053836442156</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.309388567961118</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.353724777982913</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.9519364100711781</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.012336341397128</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.9814287635273271</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6148.122472951053</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7089.052046586211</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4706.850482221877</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5876.620355263143</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4142.452751002061</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3690.960468732976</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5311.260983024954</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6009.946901459392</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6360.54683485312</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5989.671868694553</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.132331496915321</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.030861419222112</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.131759523065548</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.378460859348055</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.072488151588253</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.276037313092231</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.327307680511292</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.9221223580390163</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.9981405554633253</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.9991995442344613</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5391.943096295948</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6540.807803694487</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5053.72484369085</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6144.84181731798</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4130.893502518402</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4062.55463908483</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4562.259949673238</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5959.278891162442</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6430.552153388718</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6512.968440387432</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.181310392962197</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.02798497714895</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.100436480105967</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.326194040838097</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.080778072584476</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.215580288608767</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.34841242498858</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.9229181181114888</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.041820628874815</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.9539152641521014</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5599.058972404064</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6602.776161288121</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4819.837565335751</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6278.630230147927</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4209.838815258833</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4366.041080839604</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3810.978524133826</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6384.979222580303</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6256.129199350496</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6482.261817008653</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.180965152788066</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.055091575928005</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.117410627380035</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.293782038367409</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.056907324118434</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.251165278219477</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.354294435132423</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.9428544322245422</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.002506521399242</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.013804508597439</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6646.146990360739</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6854.210459341217</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5096.6133866415</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5423.821944816879</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3733.879670482147</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4176.426972790279</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3426.775606475969</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6379.093763901018</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6808.817953427564</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6401.203803150523</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.130398866932171</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.095768005290936</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.124336437628041</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.26214134301874</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.032758471909711</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.247079864408344</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.372893242870578</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.9406349224016927</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.9406940318675046</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.038494831820451</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6324.153795032772</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8001.737981225842</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4647.526286906441</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4576.442217967317</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3794.5112091436</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4526.068285484162</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3252.476156245241</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6747.233388762026</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6701.324955727057</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5942.392575048637</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.136374258576504</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.063716104786231</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.196925866394383</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.298026101585631</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.078272690325911</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.257323150802353</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.313594724353892</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.9565460561297199</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.9571548312654824</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.071655115829934</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6569.420211354837</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7193.221707459153</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4160.478440858434</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4730.597748492333</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3326.082666672708</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5552.259524723351</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3411.059734181038</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6469.423922598884</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6752.10787085498</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6028.894857056081</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.112089110562338</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.006990285638442</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.215130413667719</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.312926202467707</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.140626732128714</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.236624327567447</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.281762982609099</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.9107449131919202</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.939389661493842</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.032757411572501</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6262.197793829615</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7526.028593071805</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3783.959167405843</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4333.688013524343</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3531.579391215543</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5302.109382633451</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3503.209493456883</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6055.554505081393</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7059.189588005403</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5445.887026856766</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.086780054987009</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.9928467185460476</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.229370328559855</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.305348398635372</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.107156919786684</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.256029913588422</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.218531194081504</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.8969860529588785</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.9695405657347401</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.054884005916457</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7061.668932293846</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7912.106230231804</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3762.818372598107</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4837.215766392622</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3441.120453629518</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5778.257500321939</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3726.412467084183</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5311.193914759924</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7430.996246529374</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5913.49694635158</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.078386113045733</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.9754035261370236</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.185338669131247</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.251907875653042</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.107687662723133</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.176513913422399</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.230104317782777</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.8868213853044199</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.9133977972787132</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.035100368502699</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6781.521603659015</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7224.605435826725</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3853.560413109756</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5445.063010433101</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3069.168641373203</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5898.392225920782</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4094.459646041973</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5293.12187193988</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8575.566624792362</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5548.473502443238</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.07804471126779</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.9795799517272745</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.16974380851273</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.277754291263505</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.108072580351853</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.171725735915424</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.248526245605926</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.8802814492127028</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.9040355545897354</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.029554347984295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="26" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Analysis Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Gold Spot</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>EUR/USD</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Gold Vol</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Z Group PV (EUR)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>A Bank PV (EUR)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>KO Rate</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>January 2026 (Original)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2750</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-191903454</v>
+      </c>
+      <c r="F2" t="n">
+        <v>191903454</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Original analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>February 1, 2026 (Current)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4900</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E3" t="n">
+        <v>46330625.75902797</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-46330625.75902797</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.94769</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Updated after gold rally</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CHANGE ANALYSIS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gold Price Change</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>+78.2%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EUR/USD Change</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>+10.2%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Volatility Change</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>+55.6%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Z Group PV Change</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>238234079.759028</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>~EUR 238M swing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>EUR Rate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>USD Rate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Rate Diff</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Z Group PV (EUR)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Knockout Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-2.0%</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>43659214.83386311</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9332</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-3.0%</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>47449930.48428217</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9359</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-4.0%</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>52116811.05480368</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.93735</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>56372428.37606388</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.94135</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>43186333.25324863</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9321</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-2.0%</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>47281383.02602433</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9332</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-3.0%</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>51092632.74140358</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9359</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-4.0%</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>55785336.72425215</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.93735</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>42736473.14526642</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9348</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>46720094.35261168</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9321</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-2.0%</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>50861060.42552925</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9332</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-3.0%</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>54692877.49336333</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9359</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>42232171.99252601</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.93725</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>46177902.85802972</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9348</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>50212508.17132572</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9321</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-2.0%</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>54398870.79366554</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9332</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +3881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -881,11 +3889,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="33" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -914,208 +3923,473 @@
           <t>Source</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gold Spot Price</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>S₀</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4900</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>USD/oz</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>LBMA Feb 2026</t>
-        </is>
-      </c>
+          <t>SPOT PRICES</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EUR/USD Spot Rate</t>
+          <t>Gold Spot Price</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X₀</t>
+          <t>S₀</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>4900</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>USD/oz</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ECB Reference</t>
+          <t>LBMA Feb 1, 2026</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Down from $5,608 ATH on Jan 28</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EUR Risk-Free Rate</t>
+          <t>EUR/USD Spot Rate</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>r_EUR</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2.50%</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Annual</t>
-        </is>
-      </c>
+          <t>X₀</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ECB Deposit Rate</t>
+          <t>ECB Reference</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Near 4-year high</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>USD Risk-Free Rate</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>r_USD</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4.25%</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Annual</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Fed Funds Rate</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gold Volatility</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>σ_S</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>28.0%</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Annual</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1Y ATM Implied</t>
-        </is>
-      </c>
+          <t>INTEREST RATES</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EUR/USD Volatility</t>
+          <t>EUR Risk-Free Rate</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>σ_X</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.0%</t>
-        </is>
+          <t>r_EUR</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.025</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Annual</t>
+          <t>Annual (CC)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1Y ATM Implied</t>
+          <t>ECB Deposit Rate</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Continuous compounding</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Correlation</t>
+          <t>USD Risk-Free Rate</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ρ</t>
+          <t>r_USD</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>0.0425</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Annual (CC)</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Historical Estimate</t>
+          <t>Fed Funds Rate</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Continuous compounding</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Interest Rate Differential</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>r_EUR - r_USD</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.0175</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Calculated</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Drives EUR/USD drift</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VOLATILITIES</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Gold Volatility</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>σ_S</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1Y ATM Implied</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Elevated due to recent 7%+ move</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EUR/USD Volatility</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>σ_X</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1Y ATM Implied</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Also elevated</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Gold Daily Vol</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>σ_S/√252</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01763834207376394</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Calculated</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EUR/USD Daily Vol</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>σ_X/√252</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.00629940788348712</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Calculated</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CORRELATION &amp; YIELD</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ρ</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Historical</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Negative: gold up when USD weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Gold Convenience Yield</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>q</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.30%</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C19" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Annual</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Lease Rate</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Cost of carry adjustment</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DERIVED QUANTITIES</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Gold Forward Price (2Y)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5302.801178144543</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>USD/oz</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Calculated</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No-arbitrage forward</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Forward Premium</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>(F-S)/S</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>8.220432207031481</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Calculated</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1128,13 +4402,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="34" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1149,128 +4428,291 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Notes</t>
+          <t>Description</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Notional Principal</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>EUR 500,000,000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>EUR 500 Million</t>
-        </is>
-      </c>
+          <t>PRINCIPAL &amp; STRIKE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Strike Price (K)</t>
+          <t>Notional Principal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>USD 4,600.00/oz</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>EUR 500,000,000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EUR 500 Million</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tenor</t>
+          <t>Strike Price (K)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.0 years</t>
+          <t>USD 4,600.00/oz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>March 2026 - February 2028</t>
+          <t>Fixed gold reference price</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lower Barrier (EUR/USD)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1.05</v>
+          <t>Strike vs Current Spot</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-6.12%</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Knock-Out if breached</t>
+          <t>Strike below current spot</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Upper Barrier (EUR/USD)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Knock-Out if breached</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TENOR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Settlement Formulas:</t>
-        </is>
-      </c>
+          <t>Contract Tenor</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2.0 years</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Z Group Payoff</t>
+          <t>Start Date</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N × (P - K) / K</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>P = Gold spot at settlement</t>
-        </is>
-      </c>
+          <t>March 1, 2026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>February 28, 2028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Trading Days</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>~504</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Approx 252 days/year</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KNOCK-OUT BARRIERS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Lower Barrier</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>EUR/USD &lt; 1.05 triggers knockout</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Upper Barrier</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>EUR/USD &gt; 1.25 triggers knockout</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Barrier Width</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Total corridor width</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Current Distance to Lower</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11.8%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Current Distance to Upper</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CRITICAL - Only 5%!</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SETTLEMENT FORMULAS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Z Group Payoff</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>N × (P - K) / K</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Long gold exposure</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>A Bank Payoff</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>N × (K - P) / K</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>K = Strike price</t>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Short gold exposure</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Settlement Currency</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Payoffs in Euros</t>
         </is>
       </c>
     </row>
@@ -1285,13 +4727,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1309,164 +4757,391 @@
           <t>Units</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Z Group Present Value</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>46330625.75902797</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+          <t>VALUATION</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A Bank Present Value</t>
+          <t>Z Group Present Value</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-46330625.75902797</v>
+        <v>46330625.75902797</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>EUR</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Positive = asset for Z Group</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Standard Error</t>
+          <t>A Bank Present Value</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>414103.5203600363</v>
+        <v>-46330625.75902797</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>EUR</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Negative = liability for A Bank</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>95% CI Lower Bound</t>
+          <t>Absolute Value</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45518982.85912229</v>
+        <v>46330625.75902797</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>EUR</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Position size</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>95% CI Upper Bound</t>
+          <t>As % of Notional</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47142268.65893364</v>
+        <v>9.266125151805593</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EUR</t>
-        </is>
-      </c>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Mean Settlement Price</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5035.778552612331</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>USD/oz</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>STATISTICAL PRECISION</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Knockout Statistics</t>
+          <t>Standard Error</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>414103.5203600363</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Monte Carlo sampling error</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Overall Knockout Rate</t>
+          <t>Relative Standard Error</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.94769</v>
+        <v>0.8938008360039132</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>&lt; 1% is good</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Average Knockout Time</t>
+          <t>95% CI Lower</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6058342030337092</v>
+        <v>45518982.85912229</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Years</t>
-        </is>
-      </c>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lower Barrier Breach Rate</t>
+          <t>95% CI Upper</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.34827</v>
+        <v>47142268.65893364</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Probability</t>
-        </is>
-      </c>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Upper Barrier Breach Rate</t>
+          <t>95% CI Width</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>1623285.799811348</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>KNOCKOUT STATISTICS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Knockout Probability</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.94769</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Very high - 95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Survival Probability</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.05230999999999997</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Only 5% reach maturity</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Average Knockout Time</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6058342030337092</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Years</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>~7 months average</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lower Barrier Breaches</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.34827</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>EUR weakening</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Upper Barrier Breaches</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>0.59942</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Probability</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>EUR strengthening - dominant!</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Upper/Lower Ratio</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.721135900307233</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ratio</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Upper breach 1.7x more likely</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SETTLEMENT PRICES</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mean Settlement Price</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5035.778552612331</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>USD/oz</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Expected gold price at settlement</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vs Strike</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9.473446795920234</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Above strike = Z Group profit</t>
         </is>
       </c>
     </row>
@@ -1481,7 +5156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1489,10 +5164,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1513,6 +5189,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Scaled Impact</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Interpretation</t>
         </is>
       </c>
@@ -1528,12 +5209,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EUR per $1 gold</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>First-order gold sensitivity</t>
+          <t>EUR per $1</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>10990745.45425572</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>$100 move impact (EUR)</t>
         </is>
       </c>
     </row>
@@ -1548,12 +5232,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Second-order gold sensitivity</t>
+          <t>EUR per $1²</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Convexity (second derivative)</t>
         </is>
       </c>
     </row>
@@ -1571,9 +5256,12 @@
           <t>EUR per 0.01 FX</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>FX sensitivity (CRITICAL)</t>
+      <c r="D4" t="n">
+        <v>-6762321.412754191</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Move to 1.25 barrier impact</t>
         </is>
       </c>
     </row>
@@ -1591,16 +5279,19 @@
           <t>EUR per 1% vol</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Gold volatility sensitivity</t>
+      <c r="D5" t="n">
+        <v>8228359.04796049</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5% vol increase impact</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rho (EUR Rate)</t>
+          <t>Rho (EUR)</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1611,9 +5302,70 @@
           <t>EUR per 1bp</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>EUR rate sensitivity</t>
+      <c r="D6" t="n">
+        <v>-2136402817.494422</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25bp rate change impact</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RISK INTERPRETATION</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Largest Risk Factor</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Delta EUR/USD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FX barrier proximity dominates</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Gold Hedge Ratio</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>22.43009276378718</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>% of notional</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Per $1 of gold</t>
         </is>
       </c>
     </row>
@@ -1628,13 +5380,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1649,107 +5409,423 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>A Bank PV (EUR)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Knockout Rate</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Intrinsic Value (EUR)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time Value (EUR)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="B2" t="n">
-        <v>-52374909.8522688</v>
+        <v>-107236188.3053212</v>
       </c>
       <c r="C2" t="n">
-        <v>0.945</v>
+        <v>107236188.3053212</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-119565217.3913043</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6497764.62411195</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4200</v>
+        <v>3631.578947368421</v>
       </c>
       <c r="B3" t="n">
-        <v>-30413832.41665956</v>
+        <v>-92795646.75968292</v>
       </c>
       <c r="C3" t="n">
-        <v>0.945</v>
+        <v>92795646.75968292</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-105263157.8947369</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7333766.345655426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4400</v>
+        <v>3763.157894736842</v>
       </c>
       <c r="B4" t="n">
-        <v>-8452754.981050299</v>
+        <v>-78355105.21404453</v>
       </c>
       <c r="C4" t="n">
-        <v>0.945</v>
+        <v>78355105.21404453</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-90961098.39816934</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8169768.067198917</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4600</v>
+        <v>3894.736842105263</v>
       </c>
       <c r="B5" t="n">
-        <v>13508322.45455896</v>
+        <v>-63914563.66840617</v>
       </c>
       <c r="C5" t="n">
-        <v>0.945</v>
+        <v>63914563.66840617</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-76659038.90160182</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9005769.788742378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4800</v>
+        <v>4026.315789473684</v>
       </c>
       <c r="B6" t="n">
-        <v>35469399.89016823</v>
+        <v>-49474022.12276781</v>
       </c>
       <c r="C6" t="n">
-        <v>0.945</v>
+        <v>49474022.12276781</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-62356979.40503433</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9841771.510285862</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5000</v>
+        <v>4157.894736842105</v>
       </c>
       <c r="B7" t="n">
-        <v>57430477.32577749</v>
+        <v>-35033480.57712947</v>
       </c>
       <c r="C7" t="n">
-        <v>0.945</v>
+        <v>35033480.57712947</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-48054919.90846685</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10677773.23182936</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5200</v>
+        <v>4289.473684210527</v>
       </c>
       <c r="B8" t="n">
-        <v>79391554.76138675</v>
+        <v>-20592939.03149103</v>
       </c>
       <c r="C8" t="n">
-        <v>0.945</v>
+        <v>20592939.03149103</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-33752860.41189928</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11513774.95337285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5400</v>
+        <v>4421.052631578948</v>
       </c>
       <c r="B9" t="n">
-        <v>101352632.196996</v>
+        <v>-6152397.485852712</v>
       </c>
       <c r="C9" t="n">
-        <v>0.945</v>
+        <v>6152397.485852712</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-19450800.91533179</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12349776.67491631</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5600</v>
+        <v>4552.631578947368</v>
       </c>
       <c r="B10" t="n">
-        <v>123313709.6326053</v>
+        <v>8288144.059785632</v>
       </c>
       <c r="C10" t="n">
-        <v>0.945</v>
+        <v>-8288144.059785632</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-5148741.418764313</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13185778.3964598</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4684.210526315789</v>
+      </c>
+      <c r="B11" t="n">
+        <v>22728685.60542398</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-22728685.60542398</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9153318.077803167</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14021780.11800329</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4815.78947368421</v>
+      </c>
+      <c r="B12" t="n">
+        <v>37169227.1510623</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-37169227.1510623</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E12" t="n">
+        <v>23455377.57437065</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14857781.83954675</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4947.368421052632</v>
+      </c>
+      <c r="B13" t="n">
+        <v>51609768.69670075</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-51609768.69670075</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E13" t="n">
+        <v>37757437.07093822</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15693783.56109026</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5078.947368421052</v>
+      </c>
+      <c r="B14" t="n">
+        <v>66050310.24233909</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-66050310.24233909</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E14" t="n">
+        <v>52059496.5675057</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16529785.28263374</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5210.526315789473</v>
+      </c>
+      <c r="B15" t="n">
+        <v>80490851.78797741</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-80490851.78797741</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E15" t="n">
+        <v>66361556.06407318</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17365787.00417721</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5342.105263157895</v>
+      </c>
+      <c r="B16" t="n">
+        <v>94931393.33361587</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-94931393.33361587</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E16" t="n">
+        <v>80663615.56064077</v>
+      </c>
+      <c r="F16" t="n">
+        <v>18201788.72572072</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5473.684210526316</v>
+      </c>
+      <c r="B17" t="n">
+        <v>109371934.8792542</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-109371934.8792542</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E17" t="n">
+        <v>94965675.05720824</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19037790.44726418</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5605.263157894737</v>
+      </c>
+      <c r="B18" t="n">
+        <v>123812476.4248925</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-123812476.4248925</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E18" t="n">
+        <v>109267734.5537757</v>
+      </c>
+      <c r="F18" t="n">
+        <v>19873792.16880764</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5736.842105263157</v>
+      </c>
+      <c r="B19" t="n">
+        <v>138253017.9705309</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-138253017.9705309</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E19" t="n">
+        <v>123569794.0503432</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20709793.89035115</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5868.421052631578</v>
+      </c>
+      <c r="B20" t="n">
+        <v>152693559.5161692</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-152693559.5161692</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E20" t="n">
+        <v>137871853.5469107</v>
+      </c>
+      <c r="F20" t="n">
+        <v>21545795.61189462</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="B21" t="n">
+        <v>167134101.0618076</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-167134101.0618076</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="E21" t="n">
+        <v>152173913.0434783</v>
+      </c>
+      <c r="F21" t="n">
+        <v>22381797.3334381</v>
       </c>
     </row>
   </sheetData>
@@ -1763,13 +5839,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1787,115 +5872,565 @@
           <t>Knockout Rate</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Upper Breach %</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lower Breach %</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Distance to Upper</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Distance to Lower</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1.06</v>
       </c>
       <c r="B2" t="n">
-        <v>37103968.78853632</v>
+        <v>36558519.64159761</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9883333333333333</v>
+        <v>0.9863333333333333</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04706666666666667</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9392666666666667</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>17.9%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.08</v>
+        <v>1.069473684210526</v>
       </c>
       <c r="B3" t="n">
-        <v>41219755.22725693</v>
+        <v>38522884.39040878</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9715</v>
+        <v>0.9773333333333334</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07706666666666667</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9002666666666668</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16.9%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.1</v>
+        <v>1.078947368421053</v>
       </c>
       <c r="B4" t="n">
-        <v>44369913.01717375</v>
+        <v>40729210.55726238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9551333333333333</v>
+        <v>0.9692</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1084666666666667</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8607333333333334</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>15.9%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.12</v>
+        <v>1.088421052631579</v>
       </c>
       <c r="B5" t="n">
-        <v>46109280.28829326</v>
+        <v>42537490.99590772</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9446333333333333</v>
+        <v>0.9607666666666667</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1421666666666667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8186</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>14.8%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.14</v>
+        <v>1.097894736842105</v>
       </c>
       <c r="B6" t="n">
-        <v>47431664.83011425</v>
+        <v>43523760.18233324</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9378666666666666</v>
+        <v>0.9552</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1779666666666667</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7772333333333333</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.9%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.16</v>
+        <v>1.107368421052632</v>
       </c>
       <c r="B7" t="n">
-        <v>47820971.20971457</v>
+        <v>45137206.70870475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9374666666666667</v>
+        <v>0.9496333333333333</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2142</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7354333333333334</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12.9%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.18</v>
+        <v>1.116842105263158</v>
       </c>
       <c r="B8" t="n">
-        <v>47001479.66399755</v>
+        <v>46620336.89278472</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9401</v>
+        <v>0.9443333333333334</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2495666666666667</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6947666666666666</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.9%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.2</v>
+        <v>1.126315789473684</v>
       </c>
       <c r="B9" t="n">
-        <v>45738127.70785875</v>
+        <v>47355537.72177817</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9507333333333333</v>
+        <v>0.9398333333333333</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2883</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6515333333333333</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11.0%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.22</v>
+        <v>1.13578947368421</v>
       </c>
       <c r="B10" t="n">
-        <v>41585138.47422373</v>
+        <v>48008680.55016516</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9659333333333333</v>
+        <v>0.9347666666666666</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3266333333333333</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6081333333333333</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.1%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>1.145263157894737</v>
+      </c>
+      <c r="B11" t="n">
+        <v>48492490.88175107</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9312666666666667</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3674</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5638666666666666</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.1%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>8.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.154736842105263</v>
+      </c>
+      <c r="B12" t="n">
+        <v>48677744.72889888</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9312333333333334</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4121</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5191333333333333</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.2%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>9.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.16421052631579</v>
+      </c>
+      <c r="B13" t="n">
+        <v>48127931.4521929</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9314</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4591</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4723</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.4%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.173684210526316</v>
+      </c>
+      <c r="B14" t="n">
+        <v>47833777.8448371</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9334</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5071666666666668</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4262333333333334</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>10.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.183157894736842</v>
+      </c>
+      <c r="B15" t="n">
+        <v>47017322.8333821</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9381333333333334</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5569000000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3812333333333333</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>11.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.192631578947368</v>
+      </c>
+      <c r="B16" t="n">
+        <v>45901514.71631648</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9439666666666666</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6085333333333333</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3354333333333333</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>12.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.202105263157895</v>
+      </c>
+      <c r="B17" t="n">
+        <v>45054703.79197878</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9490666666666666</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6600999999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2889666666666666</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>12.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.211578947368421</v>
+      </c>
+      <c r="B18" t="n">
+        <v>43700618.75630153</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9564333333333334</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7148666666666667</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2415666666666667</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>13.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.221052631578947</v>
+      </c>
+      <c r="B19" t="n">
+        <v>41704861.70024492</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9651999999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7711666666666667</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1940333333333333</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>14.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.230526315789474</v>
+      </c>
+      <c r="B20" t="n">
+        <v>39885468.21967665</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9740666666666666</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1440666666666666</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>14.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>1.24</v>
       </c>
-      <c r="B11" t="n">
-        <v>36365647.37222753</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9846</v>
+      <c r="B21" t="n">
+        <v>37398148.82108732</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9827</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8900333333333333</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.09266666666666667</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>15.3%</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1909,95 +6444,184 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Gold Volatility (%)</t>
+          <t>Gold Vol \ FX Vol</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Z Group PV (EUR)</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Knockout Rate</t>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>14%</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>15</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>46418236.44396427</v>
+        <v>60033426.93460117</v>
       </c>
       <c r="C2" t="n">
-        <v>0.945</v>
+        <v>52712294.76222394</v>
+      </c>
+      <c r="D2" t="n">
+        <v>47713569.29766823</v>
+      </c>
+      <c r="E2" t="n">
+        <v>44260232.80227651</v>
+      </c>
+      <c r="F2" t="n">
+        <v>41597663.74137872</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>20</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>46435999.76506819</v>
+        <v>60094819.95190951</v>
       </c>
       <c r="C3" t="n">
-        <v>0.945</v>
+        <v>52754869.33134306</v>
+      </c>
+      <c r="D3" t="n">
+        <v>47834216.16884025</v>
+      </c>
+      <c r="E3" t="n">
+        <v>44482791.22049695</v>
+      </c>
+      <c r="F3" t="n">
+        <v>41767553.90782329</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>25</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>46446820.22166941</v>
+        <v>60179377.93638098</v>
       </c>
       <c r="C4" t="n">
-        <v>0.945</v>
+        <v>52818021.21864841</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47960402.15876138</v>
+      </c>
+      <c r="E4" t="n">
+        <v>44723924.42240373</v>
+      </c>
+      <c r="F4" t="n">
+        <v>41944344.17742117</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>30</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>46450564.561214</v>
+        <v>60284602.40561825</v>
       </c>
       <c r="C5" t="n">
-        <v>0.945</v>
+        <v>52900518.89622483</v>
+      </c>
+      <c r="D5" t="n">
+        <v>48090412.85261339</v>
+      </c>
+      <c r="E5" t="n">
+        <v>44982988.03986239</v>
+      </c>
+      <c r="F5" t="n">
+        <v>42127189.23805214</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>35</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>46446724.28379969</v>
+        <v>60407481.6028322</v>
       </c>
       <c r="C6" t="n">
-        <v>0.945</v>
+        <v>53000484.96849283</v>
+      </c>
+      <c r="D6" t="n">
+        <v>48221947.30346076</v>
+      </c>
+      <c r="E6" t="n">
+        <v>45258966.69654981</v>
+      </c>
+      <c r="F6" t="n">
+        <v>42314975.50648588</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>40</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>46434284.29270697</v>
+        <v>60544456.53532364</v>
       </c>
       <c r="C7" t="n">
-        <v>0.945</v>
+        <v>53115395.42910596</v>
+      </c>
+      <c r="D7" t="n">
+        <v>48352150.34573629</v>
+      </c>
+      <c r="E7" t="n">
+        <v>45550533.8155144</v>
+      </c>
+      <c r="F7" t="n">
+        <v>42506363.63742509</v>
       </c>
     </row>
   </sheetData>
@@ -2011,13 +6635,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2035,71 +6666,270 @@
           <t>Knockout Rate</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Upper Breach %</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lower Breach %</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="B2" t="n">
-        <v>46598459.08251284</v>
+        <v>46857487.33514417</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9448333333333333</v>
+        <v>0.9399333333333333</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5910333333333333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3489</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.4</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="B3" t="n">
-        <v>46382234.8871277</v>
+        <v>47517003.38411643</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9439</v>
+        <v>0.9408333333333333</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5905666666666666</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3502666666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.2</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>46462005.64027688</v>
+        <v>46598387.7737416</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9449666666666666</v>
+        <v>0.9413</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5933666666666666</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3479333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>-0.5</v>
       </c>
       <c r="B5" t="n">
-        <v>46480384.61594936</v>
+        <v>46577062.98576322</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9475333333333333</v>
+        <v>0.9406</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5923666666666667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3482333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2000000000000001</v>
+        <v>-0.4000000000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>45887597.47260555</v>
+        <v>46630386.22808439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9478</v>
+        <v>0.9413333333333334</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5932333333333334</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4</v>
+        <v>-0.3000000000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>45907531.04316827</v>
+        <v>46411173.74027093</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9479</v>
+        <v>0.9422666666666667</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5940333333333334</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3482333333333333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.2000000000000001</v>
+      </c>
+      <c r="B8" t="n">
+        <v>45812550.70707282</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9404</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5918666666666668</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3485333333333334</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="B9" t="n">
+        <v>45934848.54291051</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9411333333333334</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5914333333333334</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3497</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-1.110223024625157e-16</v>
+      </c>
+      <c r="B10" t="n">
+        <v>45855983.44395816</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9419</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5929</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="B11" t="n">
+        <v>46159191.45752858</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9429</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5934</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3495</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.1999999999999998</v>
+      </c>
+      <c r="B12" t="n">
+        <v>46194783.41632698</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9414</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5920666666666666</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3493333333333334</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="B13" t="n">
+        <v>45865074.68810507</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9416333333333333</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5921</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3495333333333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>45877169.79093401</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9410333333333334</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5916</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3494333333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.4999999999999998</v>
+      </c>
+      <c r="B15" t="n">
+        <v>46036086.62607433</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9383666666666667</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5904333333333334</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3479333333333334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B16" t="n">
+        <v>45986319.90576614</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9400333333333334</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3491333333333334</v>
       </c>
     </row>
   </sheetData>
